--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BF5D3-CB94-4E3D-ACC3-5BC70FCC3CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C34AB6-C295-454C-BAD0-222DE54A4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -492,34 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -580,34 +562,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -703,34 +657,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -796,6 +722,90 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,20 +857,20 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -871,11 +881,14 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -883,23 +896,29 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -907,26 +926,17 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,19 +1245,19 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="13.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="13.5703125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1263,7 +1273,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1317,7 +1327,7 @@
       <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="12">
@@ -1338,1161 +1348,1161 @@
       <c r="K2" s="14">
         <v>25518.5</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="36">
         <v>25587.1</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>10289.209999999999</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>10327.120000000001</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>10364.16</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>10408.98</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>10452.049999999999</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>10495.76</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="37">
         <v>10543.63</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>9442.32</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>9442.32</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="20">
         <v>9442.33</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="20">
         <v>9442.33</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>9442.33</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>9442.33</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="37">
         <v>9442.33</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>10284.81</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>10327.17</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>10374.33</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>10415.94</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>10473.540000000001</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>10528.49</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="37">
         <v>10571.48</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>1698.38</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>1700.74</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>1703.7</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>1706.42</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>1708.82</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>1712.07</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="37">
         <v>1715.39</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>4633.29</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>4633.29</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>4633.3</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <v>4648.79</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>4648.8</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>4648.8</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="37">
         <v>4653.8</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>197.37</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>198.1</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>200.21</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <v>200.96</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <v>202.7</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <v>204.05</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="37">
         <v>204.72</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>385.2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>385.21</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <v>385.21</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <v>385.22</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <v>385.23</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="20">
         <v>385.23</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="37">
         <v>385.23</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>4138.9399999999996</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>4138.99</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <v>4139</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <v>4139.13</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <v>4139.1400000000003</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>4139.2299999999996</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="37">
         <v>4139.25</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>30.52</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>30.52</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="20">
         <v>30.52</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <v>30.52</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="20">
         <v>30.52</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>30.52</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="37">
         <v>30.52</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>3102.31</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>3102.31</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>3104.46</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="20">
         <v>3104.48</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="20">
         <v>3106.7</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>3107.35</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="37">
         <v>3108.54</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>33.85</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>33.85</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <v>34.270000000000003</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <v>34.409999999999997</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <v>34.409999999999997</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="20">
         <v>34.51</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="37">
         <v>34.51</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>369.93</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>373.52</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <v>377.1</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="20">
         <v>381.87</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <v>385.85</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <v>390.7</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="37">
         <v>394.71</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>788.8</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>790.1</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>790.1</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="20">
         <v>791.1</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="20">
         <v>791.1</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <v>791.1</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="37">
         <v>791.6</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="24"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>1.68</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>1.68</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>1.68</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="20">
         <v>1.68</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="20">
         <v>1.68</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="20">
         <v>1.68</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="37">
         <v>1.68</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>1407.75</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>1432.4</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>1459.14</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="20">
         <v>1476.36</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="20">
         <v>1497.26</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="20">
         <v>1517.41</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="37">
         <v>1542.71</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>124.6</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>124.94</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>124.99</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <v>125.1</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <v>125.31</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <v>127.03</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="37">
         <v>130.24</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>16.309999999999999</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>16.309999999999999</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>16.309999999999999</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="20">
         <v>17.38</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <v>21.55</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="20">
         <v>47.65</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="37">
         <v>57.07</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="24"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <v>1377.77</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="19">
         <v>1385.93</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <v>1398.55</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <v>1391.14</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <v>1393.12</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="20">
         <v>1400.92</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="37">
         <v>1405.11</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <v>649.66999999999996</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>649.66999999999996</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="20">
         <v>649.66999999999996</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="20">
         <v>649.66999999999996</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="20">
         <v>649.66999999999996</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="20">
         <v>649.66999999999996</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="37">
         <v>649.66999999999996</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <v>4625.6400000000003</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="19">
         <v>4632.3599999999997</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <v>4650.3999999999996</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="20">
         <v>4661.29</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <v>4672.45</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="20">
         <v>4682.45</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="37">
         <v>4690.8999999999996</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>4370.43</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>4371.1899999999996</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="21">
         <v>4384.3900000000003</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <v>4411.1899999999996</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>4428.71</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="20">
         <v>4448.74</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="37">
         <v>4464.78</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>5560.31</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>5603.77</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="20">
         <v>5651.15</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="20">
         <v>5669.39</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="20">
         <v>5678.47</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="20">
         <v>5692.42</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="37">
         <v>5696.88</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="18">
         <v>846.46</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <v>847.25</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="20">
         <v>847.32</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="20">
         <v>848.11</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="20">
         <v>848.16</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="20">
         <v>848.66</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="37">
         <v>848.67</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="24"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>1149.4100000000001</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="19">
         <v>1149.4100000000001</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="20">
         <v>1149.4100000000001</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="20">
         <v>1149.4100000000001</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <v>1149.47</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="20">
         <v>1149.47</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="37">
         <v>1149.47</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="24"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>1</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>9974.73</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="19">
         <v>10327.290000000001</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="22">
         <v>10638.01</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="20">
         <v>10916.24</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <v>11214.91</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="20">
         <v>11538.53</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="37">
         <v>11765.09</v>
       </c>
-      <c r="M28" s="22"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="24"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>2</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>1267.6300000000001</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>1298.47</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="22">
         <v>1328.02</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="20">
         <v>1365.01</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <v>1370.01</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="20">
         <v>1406.79</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="37">
         <v>1491.85</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="24"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="24">
         <v>3</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="26">
         <v>2887.08</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="27">
         <v>2887.08</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="28">
         <v>2887.08</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="28">
         <v>2887.08</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="28">
         <v>2887.08</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="28">
         <v>2887.08</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="38">
         <v>2887.08</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="34"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C34AB6-C295-454C-BAD0-222DE54A4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BCBC8-43DB-4845-AE32-C6938849528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,19 +1245,25 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="13.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="13.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BCBC8-43DB-4845-AE32-C6938849528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63447C7-FC74-4DDB-B606-0622CE76CB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,8 +1245,8 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63447C7-FC74-4DDB-B606-0622CE76CB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EE4CA-86A6-4A1E-BBA9-77596DF9904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -38,12 +28,12 @@
     <t>Complemento</t>
   </si>
   <si>
+    <t>Empresa</t>
+  </si>
+  <si>
     <t>Registro</t>
   </si>
   <si>
-    <t>Empresa</t>
-  </si>
-  <si>
     <t>Tipo de imóvel</t>
   </si>
   <si>
@@ -89,24 +79,24 @@
     <t>Galpão 1</t>
   </si>
   <si>
+    <t>Abaixo de Zero</t>
+  </si>
+  <si>
     <t>A79B53393</t>
   </si>
   <si>
-    <t>Abaixo de Zero</t>
-  </si>
-  <si>
     <t>Industrial</t>
   </si>
   <si>
     <t>Galpão 2</t>
   </si>
   <si>
+    <t>Masp</t>
+  </si>
+  <si>
     <t>A99L488883</t>
   </si>
   <si>
-    <t>Masp</t>
-  </si>
-  <si>
     <t>Galpão 3</t>
   </si>
   <si>
@@ -116,12 +106,12 @@
     <t>Galpão 4</t>
   </si>
   <si>
+    <t>Metal Printing</t>
+  </si>
+  <si>
     <t>A99L488887</t>
   </si>
   <si>
-    <t>Metal Printing</t>
-  </si>
-  <si>
     <t>Marcenaria/Serralheria</t>
   </si>
   <si>
@@ -179,12 +169,12 @@
     <t>Galpão 8</t>
   </si>
   <si>
+    <t>Nek Packing</t>
+  </si>
+  <si>
     <t>A09S372870</t>
   </si>
   <si>
-    <t>Nek Packing</t>
-  </si>
-  <si>
     <t>A79B54592</t>
   </si>
   <si>
@@ -266,6 +256,9 @@
     <t>A02L273769</t>
   </si>
   <si>
+    <t>Poço</t>
+  </si>
+  <si>
     <t>A08L186679</t>
   </si>
   <si>
@@ -273,9 +266,6 @@
   </si>
   <si>
     <t>AO9L069981</t>
-  </si>
-  <si>
-    <t>Poço</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>4</v>
@@ -1328,10 +1318,10 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>21</v>
@@ -1370,10 +1360,10 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>21</v>
@@ -1452,10 +1442,10 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>21</v>
@@ -1830,10 +1820,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>21</v>
@@ -1954,7 +1944,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>55</v>
@@ -1998,7 +1988,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>58</v>
@@ -2386,14 +2376,14 @@
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="16">
         <v>1</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>63</v>
@@ -2428,14 +2418,14 @@
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="16">
         <v>2</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>63</v>
@@ -2470,14 +2460,14 @@
     </row>
     <row r="30" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B30" s="24">
         <v>3</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>63</v>
